--- a/data/figures/guo3.xlsx
+++ b/data/figures/guo3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCY\SkyDrive\文件\楊晉昌PAPER\SVDE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCY\SkyDrive\文件\楊晉昌PAPER\SPSDE\TEVC (13 pages)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -243,7 +243,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="1"/>
@@ -2502,11 +2502,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="64222160"/>
-        <c:axId val="64215440"/>
+        <c:axId val="347869520"/>
+        <c:axId val="347870080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64222160"/>
+        <c:axId val="347869520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2594,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64215440"/>
+        <c:crossAx val="347870080"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64215440"/>
+        <c:axId val="347870080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2716,7 +2716,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64222160"/>
+        <c:crossAx val="347869520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2832,7 +2832,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -5091,11 +5091,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="451045008"/>
-        <c:axId val="451045568"/>
+        <c:axId val="347879040"/>
+        <c:axId val="347879600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="451045008"/>
+        <c:axId val="347879040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5183,7 +5183,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451045568"/>
+        <c:crossAx val="347879600"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5191,7 +5191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="451045568"/>
+        <c:axId val="347879600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5305,7 +5305,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="451045008"/>
+        <c:crossAx val="347879040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5421,7 +5421,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -7680,11 +7680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520829680"/>
-        <c:axId val="520830240"/>
+        <c:axId val="347774000"/>
+        <c:axId val="347774560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="520829680"/>
+        <c:axId val="347774000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7772,7 +7772,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520830240"/>
+        <c:crossAx val="347774560"/>
         <c:crossesAt val="1.0000000000000005E-8"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7780,7 +7780,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520830240"/>
+        <c:axId val="347774560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7894,7 +7894,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520829680"/>
+        <c:crossAx val="347774000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8010,7 +8010,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
-              <a:t>f</a:t>
+              <a:t>cf</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1200" b="1"/>
@@ -10269,11 +10269,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="520839200"/>
-        <c:axId val="520839760"/>
+        <c:axId val="347783520"/>
+        <c:axId val="347784080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="520839200"/>
+        <c:axId val="347783520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10361,7 +10361,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520839760"/>
+        <c:crossAx val="347784080"/>
         <c:crossesAt val="1.0000000000000007E-13"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10369,7 +10369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="520839760"/>
+        <c:axId val="347784080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10483,7 +10483,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="520839200"/>
+        <c:crossAx val="347783520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17742,7 +17742,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
